--- a/mandalorian.xlsx
+++ b/mandalorian.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dd2b3b0fc327b09/Documentos/Arquivos INSPER 2° SEMESTRE/C-Dados/TheMandalorian/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="514" documentId="11_23AE5200ACF396BE20171F007F7BEE45E12FB6E0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1989162B-E1DD-4BE3-950A-37486A628B62}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="728">
   <si>
     <t>Treinamento</t>
   </si>
@@ -371,9 +377,6 @@
   </si>
   <si>
     <t>sdds the mandalorian</t>
-  </si>
-  <si>
-    <t>@rickingcraft @vini_saiko @brasil_fortnite me diz no trailer onde tem wandavision ? tô perguntando do trailer, já tô de saco cheio de fanzinho igual tu que vê wandavision até no cu dos bagulho, the mandalorian fez o mesmo sucesso que wandavision e demorou um ano pra vir</t>
   </si>
   <si>
     <t>meu baby yoda chegou hoje!!!
@@ -2598,12 +2601,18 @@
   <si>
     <t>@tebaldopaladino e nem acabamos a maratona de star wars, e tem o mandalorian tbm</t>
   </si>
+  <si>
+    <t>Relevancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @brasil_fortnite me diz no trailer onde tem wandavision  tô perguntando do  já tô de saco cheio de fanzinho igual tu que vê wandavision até no cu dos bagulho, the mandalorian fez o mesmo sucesso que wandavision e demorou um ano pra vir</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2613,6 +2622,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2655,22 +2672,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2712,7 +2738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2744,9 +2770,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2778,6 +2822,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2953,3659 +3015,5169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="161.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>727</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="s">
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="s">
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="s">
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="s">
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="s">
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="s">
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="s">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="s">
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="s">
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" t="s">
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" t="s">
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="s">
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="s">
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="s">
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="s">
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="s">
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="s">
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="s">
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" t="s">
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" t="s">
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" t="s">
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" t="s">
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" t="s">
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="s">
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="s">
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="s">
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="s">
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="s">
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="s">
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="s">
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="s">
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="s">
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="s">
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1">
-      <c r="A501" t="s">
-        <v>500</v>
+      <c r="B501">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/mandalorian.xlsx
+++ b/mandalorian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dd2b3b0fc327b09/Documentos/Arquivos INSPER 2° SEMESTRE/C-Dados/TheMandalorian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\INSPER\2_Semestre\C_Dados\Projeto 1\TheMandalorian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="11_23AE5200ACF396BE20171F007F7BEE45E12FB6E0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1989162B-E1DD-4BE3-950A-37486A628B62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED08CF-40A2-472C-90C4-D98FB2F34A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="728">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3018,7 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A450" zoomScale="75" workbookViewId="0">
       <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
@@ -7044,1140 +7044,1823 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>725</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mandalorian.xlsx
+++ b/mandalorian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\INSPER\2_Semestre\C_Dados\Projeto 1\TheMandalorian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dd2b3b0fc327b09/Documentos/Arquivos INSPER 2° SEMESTRE/C-Dados/TheMandalorian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED08CF-40A2-472C-90C4-D98FB2F34A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{70ED08CF-40A2-472C-90C4-D98FB2F34A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BC33C3CC-85A3-4D32-AE02-66CFCDF89EF3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1610" yWindow="1400" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2672,12 +2672,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3016,10 +3019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView topLeftCell="A450" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3028,7 +3031,7 @@
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3036,15 +3039,15 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3068,15 +3071,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3124,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3476,8 +3480,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -7046,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/mandalorian.xlsx
+++ b/mandalorian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dd2b3b0fc327b09/Documentos/Arquivos INSPER 2° SEMESTRE/C-Dados/TheMandalorian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{70ED08CF-40A2-472C-90C4-D98FB2F34A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BC33C3CC-85A3-4D32-AE02-66CFCDF89EF3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{70ED08CF-40A2-472C-90C4-D98FB2F34A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4E233CB5-659B-4DC8-9332-73CBD7BA83CF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1610" yWindow="1400" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
 - bora construir uma nave do mandalorian na sibéria? 
 - só bora
 https://t.co/kxdcvkmkrv</t>
-  </si>
-  <si>
-    <t>obg mandalorian por me fazer chorar nesse final incrível 🤧 https://t.co/jxyebgthp0</t>
   </si>
   <si>
     <t>@lukeskywalkor eu assim chorando com meus pais antes e eles tavam hm mas um ep de mandalorian na globo e eles assinaram disney+ e globoplay na hora e hj até minha vó usa mas essas 2 plataformas que eu</t>
@@ -2606,6 +2603,9 @@
   </si>
   <si>
     <t xml:space="preserve"> @brasil_fortnite me diz no trailer onde tem wandavision  tô perguntando do  já tô de saco cheio de fanzinho igual tu que vê wandavision até no cu dos bagulho, the mandalorian fez o mesmo sucesso que wandavision e demorou um ano pra vir</t>
+  </si>
+  <si>
+    <t>obg mandalorian por me fazer chorar nesse final incrível  https://t.co/jxyebgthp0</t>
   </si>
 </sst>
 </file>
@@ -3021,13 +3021,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="161.81640625" customWidth="1"/>
+    <col min="1" max="1" width="234.81640625" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -3090,7 +3090,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>727</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B451">
         <v>0</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -6682,7 +6682,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B484">
         <v>0</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B494">
         <v>0</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -7050,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A210" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7061,15 +7061,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -7701,7 +7701,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8229,7 +8229,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8645,7 +8645,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B226">
         <v>0</v>
